--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_drugs_pharmaceutical.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_drugs_pharmaceutical.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.417</v>
+        <v>0.158</v>
       </c>
       <c r="G2">
-        <v>-0.4187604690117253</v>
+        <v>0.265133171912833</v>
       </c>
       <c r="H2">
-        <v>-3.946398659966499</v>
+        <v>-3.013317191283293</v>
       </c>
       <c r="I2">
-        <v>-4.261875346923066</v>
+        <v>-3.656375940399282</v>
       </c>
       <c r="J2">
-        <v>-4.261875346923066</v>
+        <v>-3.656375940399282</v>
       </c>
       <c r="K2">
-        <v>-221</v>
+        <v>-285.2</v>
       </c>
       <c r="L2">
-        <v>-3.701842546063651</v>
+        <v>-3.452784503631961</v>
       </c>
       <c r="M2">
-        <v>4.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="N2">
-        <v>0.002796344291365434</v>
+        <v>0.0082417099129211</v>
       </c>
       <c r="O2">
-        <v>-0.01855203619909502</v>
+        <v>-0.03285413744740533</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +630,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>4.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>102.4</v>
+        <v>93.3</v>
       </c>
       <c r="V2">
-        <v>0.06984040376483426</v>
+        <v>0.08206526519482803</v>
       </c>
       <c r="W2">
-        <v>16.49253731343283</v>
+        <v>1.560175054704595</v>
       </c>
       <c r="X2">
-        <v>0.1172399614002322</v>
+        <v>0.08873819743095571</v>
       </c>
       <c r="Y2">
-        <v>16.3752973520326</v>
+        <v>1.471436857273639</v>
       </c>
       <c r="Z2">
-        <v>0.2966167932436054</v>
+        <v>0.3154077085048333</v>
       </c>
       <c r="AA2">
-        <v>-1.264143798608298</v>
+        <v>-1.153249156793542</v>
       </c>
       <c r="AB2">
-        <v>0.09451158265370091</v>
+        <v>0.06675102015414669</v>
       </c>
       <c r="AC2">
-        <v>-1.358655381261999</v>
+        <v>-1.220000176947689</v>
       </c>
       <c r="AD2">
-        <v>511.8</v>
+        <v>611.2</v>
       </c>
       <c r="AE2">
-        <v>91.26979105653535</v>
+        <v>90.78326338490311</v>
       </c>
       <c r="AF2">
-        <v>603.0697910565353</v>
+        <v>701.9832633849031</v>
       </c>
       <c r="AG2">
-        <v>500.6697910565354</v>
+        <v>608.6832633849032</v>
       </c>
       <c r="AH2">
-        <v>0.2914408713948401</v>
+        <v>0.3817443322055885</v>
       </c>
       <c r="AI2">
-        <v>1.434958695319144</v>
+        <v>1.593666142932418</v>
       </c>
       <c r="AJ2">
-        <v>0.2545515688598748</v>
+        <v>0.3486990716241118</v>
       </c>
       <c r="AK2">
-        <v>1.575078240031585</v>
+        <v>1.753204510639354</v>
       </c>
       <c r="AL2">
-        <v>27.9</v>
+        <v>40.9</v>
       </c>
       <c r="AM2">
-        <v>19.48</v>
+        <v>36.92</v>
       </c>
       <c r="AN2">
-        <v>-2.194870915172828</v>
+        <v>-2.193353907988229</v>
       </c>
       <c r="AO2">
-        <v>-8.745519713261649</v>
+        <v>-7.134474327628363</v>
       </c>
       <c r="AP2">
-        <v>-2.147138652785554</v>
+        <v>-2.184322340432438</v>
       </c>
       <c r="AQ2">
-        <v>-12.52566735112937</v>
+        <v>-7.903575297941495</v>
       </c>
     </row>
     <row r="3">
@@ -722,34 +722,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.417</v>
+        <v>0.158</v>
       </c>
       <c r="G3">
-        <v>-0.4187604690117253</v>
+        <v>0.265133171912833</v>
       </c>
       <c r="H3">
-        <v>-3.946398659966499</v>
+        <v>-3.013317191283293</v>
       </c>
       <c r="I3">
-        <v>-4.261875346923066</v>
+        <v>-3.656375940399282</v>
       </c>
       <c r="J3">
-        <v>-4.261875346923066</v>
+        <v>-3.656375940399282</v>
       </c>
       <c r="K3">
-        <v>-221</v>
+        <v>-285.2</v>
       </c>
       <c r="L3">
-        <v>-3.701842546063651</v>
+        <v>-3.452784503631961</v>
       </c>
       <c r="M3">
-        <v>4.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="N3">
-        <v>0.002796344291365434</v>
+        <v>0.0082417099129211</v>
       </c>
       <c r="O3">
-        <v>-0.01855203619909502</v>
+        <v>-0.03285413744740533</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +761,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>4.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>102.4</v>
+        <v>93.3</v>
       </c>
       <c r="V3">
-        <v>0.06984040376483426</v>
+        <v>0.08206526519482803</v>
       </c>
       <c r="W3">
-        <v>16.49253731343283</v>
+        <v>1.560175054704595</v>
       </c>
       <c r="X3">
-        <v>0.1172399614002322</v>
+        <v>0.08873819743095571</v>
       </c>
       <c r="Y3">
-        <v>16.3752973520326</v>
+        <v>1.471436857273639</v>
       </c>
       <c r="Z3">
-        <v>0.2966167932436054</v>
+        <v>0.3154077085048333</v>
       </c>
       <c r="AA3">
-        <v>-1.264143798608298</v>
+        <v>-1.153249156793542</v>
       </c>
       <c r="AB3">
-        <v>0.09451158265370091</v>
+        <v>0.06675102015414669</v>
       </c>
       <c r="AC3">
-        <v>-1.358655381261999</v>
+        <v>-1.220000176947689</v>
       </c>
       <c r="AD3">
-        <v>511.8</v>
+        <v>611.2</v>
       </c>
       <c r="AE3">
-        <v>91.26979105653535</v>
+        <v>90.78326338490311</v>
       </c>
       <c r="AF3">
-        <v>603.0697910565353</v>
+        <v>701.9832633849031</v>
       </c>
       <c r="AG3">
-        <v>500.6697910565354</v>
+        <v>608.6832633849032</v>
       </c>
       <c r="AH3">
-        <v>0.2914408713948401</v>
+        <v>0.3817443322055885</v>
       </c>
       <c r="AI3">
-        <v>1.434958695319144</v>
+        <v>1.593666142932418</v>
       </c>
       <c r="AJ3">
-        <v>0.2545515688598748</v>
+        <v>0.3486990716241118</v>
       </c>
       <c r="AK3">
-        <v>1.575078240031585</v>
+        <v>1.753204510639354</v>
       </c>
       <c r="AL3">
-        <v>27.9</v>
+        <v>40.9</v>
       </c>
       <c r="AM3">
-        <v>19.48</v>
+        <v>36.92</v>
       </c>
       <c r="AN3">
-        <v>-2.194870915172828</v>
+        <v>-2.193353907988229</v>
       </c>
       <c r="AO3">
-        <v>-8.745519713261649</v>
+        <v>-7.134474327628363</v>
       </c>
       <c r="AP3">
-        <v>-2.147138652785554</v>
+        <v>-2.184322340432438</v>
       </c>
       <c r="AQ3">
-        <v>-12.52566735112937</v>
+        <v>-7.903575297941495</v>
       </c>
     </row>
   </sheetData>
